--- a/Factures_Excel/1750 - 9152-9396 Québec Inc (Automanie).xlsx
+++ b/Factures_Excel/1750 - 9152-9396 Québec Inc (Automanie).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEDE382-D166-446E-BC62-4C87C0209C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D557C97A-669D-4EB6-B64A-B0C34AC551EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="29-03-24" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="28-07-24" sheetId="7" r:id="rId3"/>
     <sheet name="Activités" sheetId="5" r:id="rId4"/>
     <sheet name="2024-12-23 - 24-24734" sheetId="8" r:id="rId5"/>
+    <sheet name="2025-03-01 - 25-24747" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -26,6 +27,7 @@
     <definedName name="Print_Area" localSheetId="0">'29-03-24'!$A$1:$F$89</definedName>
     <definedName name="Print_Area" localSheetId="3">Activités!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2024-12-23 - 24-24734'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2025-03-01 - 25-24747'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'26-05-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'28-07-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'29-03-24'!$A$1:$F$89</definedName>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="98">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -313,6 +315,36 @@
   </si>
   <si>
     <t>Frais d'expert en taxes</t>
+  </si>
+  <si>
+    <t>Le 1 MARS 2025</t>
+  </si>
+  <si>
+    <t>Michel Larivée</t>
+  </si>
+  <si>
+    <t>9152-9396 Québec Inc.</t>
+  </si>
+  <si>
+    <t>597 rue Notre-Dame</t>
+  </si>
+  <si>
+    <t>Repentigny, Québec, J6A 2V3</t>
+  </si>
+  <si>
+    <t>25-24747</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation à la rencontre et rencontre avec Justin et Sandrine par Vidéoconférence;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des calculs d'ajustement à la juste valeur marchande ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Modifications au mémorandum fiscal pour finaliser la dernière étape ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation à la rencontre et rencontre avec vous par Vidéoconférence;</t>
   </si>
 </sst>
 </file>
@@ -753,7 +785,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -852,42 +884,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -927,9 +923,6 @@
     </xf>
     <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1026,39 +1019,81 @@
     <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="28" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="28" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1340,6 +1375,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45731D7F-4881-BD46-AC2E-372FBB8242CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5121" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F51EB5-6D73-ADE2-AEEB-9EBB3F1278E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,14 +1914,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -1841,285 +1942,285 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="58" t="s">
+      <c r="B57" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="58" t="s">
+      <c r="B61" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2149,17 +2250,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -2266,19 +2367,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
+      <c r="C78" s="121"/>
+      <c r="D78" s="121"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2286,9 +2387,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2323,31 +2424,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="113"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="113"/>
+      <c r="F84" s="113"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="60" t="s">
+      <c r="A85" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="122"/>
+      <c r="E85" s="122"/>
+      <c r="F85" s="122"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -2359,26 +2460,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2388,34 +2489,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -2432,6 +2505,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -2441,7 +2542,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2590,14 +2691,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2618,277 +2719,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="114" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2918,17 +3019,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3035,19 +3136,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
+      <c r="C78" s="121"/>
+      <c r="D78" s="121"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3055,9 +3156,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3092,31 +3193,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="113"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="113"/>
+      <c r="F84" s="113"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="60" t="s">
+      <c r="A85" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="122"/>
+      <c r="E85" s="122"/>
+      <c r="F85" s="122"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3128,26 +3229,776 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="63" t="s">
+      <c r="A88" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
+      <c r="B88" s="112"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{13356199-CCDE-4D7F-B983-5C31E8440532}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1428DDD-DEE4-4F4F-8C4B-6E4178427224}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A33" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:D67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="114"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="46"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="51">
+        <v>1.25</v>
+      </c>
+      <c r="D66" s="52">
+        <v>350</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D66*C66</f>
+        <v>437.5</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>437.5</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>21.88</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>43.64</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>503.02</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="121"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>503.02</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="113"/>
+      <c r="C84" s="113"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="113"/>
+      <c r="F84" s="113"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="122"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="122"/>
+      <c r="E85" s="122"/>
+      <c r="F85" s="122"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="120"/>
+      <c r="C87" s="120"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="120"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="112"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="112"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="118"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3203,763 +4054,13 @@
     <mergeCell ref="B42:D42"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{13356199-CCDE-4D7F-B983-5C31E8440532}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1428DDD-DEE4-4F4F-8C4B-6E4178427224}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A33" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:D67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="46"/>
-    </row>
-    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="51">
-        <v>1.25</v>
-      </c>
-      <c r="D66" s="52">
-        <v>350</v>
-      </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D66*C66</f>
-        <v>437.5</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>437.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>21.88</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>43.64</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>503.02</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>503.02</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="54"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{4253466C-1418-4C3E-B604-42B4B5CE8DBE}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3986,10 +4087,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="123"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4361,6 +4462,841 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E48BB53-1F05-42B3-8B50-531E4AA3BD22}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="64"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="68"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="70"/>
+      <c r="B34" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="70"/>
+      <c r="B35" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="70"/>
+      <c r="B36" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="70"/>
+      <c r="B37" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="70"/>
+      <c r="B38" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="70"/>
+      <c r="B39" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="70"/>
+      <c r="B40" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="70"/>
+      <c r="B41" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="70"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="70"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="70"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="70"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="70"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="70"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="70"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="70"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="70"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="70"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="70"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="70"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="70"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="70"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="70"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="70"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="70"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="70"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="70"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="70"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="70"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="70"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="70"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="70"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="86">
+        <v>6</v>
+      </c>
+      <c r="D66" s="87">
+        <v>350</v>
+      </c>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="70"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="70"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="70"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="58"/>
+      <c r="B69" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="90"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="91">
+        <v>2100</v>
+      </c>
+      <c r="F69" s="91"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="58"/>
+      <c r="B70" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="93"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="94">
+        <v>0</v>
+      </c>
+      <c r="F70" s="94"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="58"/>
+      <c r="B71" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="93"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="94">
+        <v>0</v>
+      </c>
+      <c r="F71" s="94"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="58"/>
+      <c r="B72" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="93"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="94">
+        <v>0</v>
+      </c>
+      <c r="F72" s="94"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="58"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="90"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="96">
+        <v>2100</v>
+      </c>
+      <c r="F73" s="96"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="58"/>
+      <c r="B74" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="97">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="93"/>
+      <c r="E74" s="98">
+        <v>105</v>
+      </c>
+      <c r="F74" s="98"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="58"/>
+      <c r="B75" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="100">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="93"/>
+      <c r="E75" s="101">
+        <v>209.48</v>
+      </c>
+      <c r="F75" s="98"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="58"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
+      <c r="B77" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="90"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="104">
+        <v>2414.48</v>
+      </c>
+      <c r="F77" s="105"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="58"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="99"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="58"/>
+      <c r="B79" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="99"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="58"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="99"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="58"/>
+      <c r="B81" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="126"/>
+      <c r="D81" s="107"/>
+      <c r="E81" s="108">
+        <v>2414.48</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="109"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="110"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="129"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="71"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="130"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="111"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="111"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="111"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="111"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="131"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE157C5E-25C8-4F32-BFA6-0A9E015D13C8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4381,791 +5317,795 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
-      <c r="B23" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
-      <c r="B24" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="132" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="75" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="76"/>
+      <c r="E28" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="68"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84" t="s">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
-      <c r="B34" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
+      <c r="A34" s="70"/>
+      <c r="B34" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
-      <c r="B35" s="88" t="s">
+      <c r="A35" s="70"/>
+      <c r="B35" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
-      <c r="B36" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="88" t="s">
+      <c r="A37" s="70"/>
+      <c r="B37" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
-      <c r="B38" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
+      <c r="A38" s="70"/>
+      <c r="B38" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
-      <c r="B39" s="88" t="s">
+      <c r="A39" s="70"/>
+      <c r="B39" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
-      <c r="B40" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="83"/>
-      <c r="B41" s="88" t="s">
+      <c r="A41" s="70"/>
+      <c r="B41" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
-      <c r="B42" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
+      <c r="A45" s="70"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="83"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
+      <c r="A46" s="70"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
+      <c r="A47" s="70"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
+      <c r="A48" s="70"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="83"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="83"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="83"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="83"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="83"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
+      <c r="A54" s="70"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="83"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="83"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="83"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="83"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="83"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="83"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
+      <c r="A60" s="70"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="83"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
+      <c r="A61" s="70"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="83"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
+      <c r="A62" s="70"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="83"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="83"/>
-      <c r="B64" s="93"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
+      <c r="A64" s="70"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="83"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="97" t="s">
+      <c r="A65" s="70"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="98" t="s">
+      <c r="D65" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="83"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="99">
-        <v>6</v>
-      </c>
-      <c r="D66" s="100">
-        <v>350</v>
-      </c>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
+      <c r="A66" s="70"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="86">
+        <v>6.9</v>
+      </c>
+      <c r="D66" s="87">
+        <v>400</v>
+      </c>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="83"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="A67" s="70"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="83"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="83"/>
+      <c r="A68" s="70"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="70"/>
     </row>
     <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="70"/>
-      <c r="B69" s="103" t="s">
+      <c r="A69" s="58"/>
+      <c r="B69" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="103"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="104">
-        <v>2100</v>
-      </c>
-      <c r="F69" s="104"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="91">
+        <v>2760</v>
+      </c>
+      <c r="F69" s="91"/>
     </row>
     <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="70"/>
-      <c r="B70" s="105" t="s">
+      <c r="A70" s="58"/>
+      <c r="B70" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="106"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="107">
+      <c r="C70" s="93"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="94">
         <v>0</v>
       </c>
-      <c r="F70" s="107"/>
+      <c r="F70" s="94"/>
     </row>
     <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="70"/>
-      <c r="B71" s="108" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="106"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="107">
+      <c r="C71" s="93"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="94">
         <v>0</v>
       </c>
-      <c r="F71" s="107"/>
+      <c r="F71" s="94"/>
     </row>
     <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="70"/>
-      <c r="B72" s="108" t="s">
+      <c r="A72" s="58"/>
+      <c r="B72" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="106"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="107">
+      <c r="C72" s="93"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="94">
         <v>0</v>
       </c>
-      <c r="F72" s="107"/>
+      <c r="F72" s="94"/>
     </row>
     <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="70"/>
-      <c r="B73" s="71" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="103"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="109">
-        <v>2100</v>
-      </c>
-      <c r="F73" s="109"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="96">
+        <v>2760</v>
+      </c>
+      <c r="F73" s="96"/>
     </row>
     <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="70"/>
-      <c r="B74" s="106" t="s">
+      <c r="A74" s="58"/>
+      <c r="B74" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="110">
+      <c r="C74" s="97">
         <v>0.05</v>
       </c>
-      <c r="D74" s="106"/>
-      <c r="E74" s="111">
-        <v>105</v>
-      </c>
-      <c r="F74" s="111"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="98">
+        <v>138</v>
+      </c>
+      <c r="F74" s="98"/>
     </row>
     <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="70"/>
-      <c r="B75" s="112" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="113">
+      <c r="C75" s="100">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="D75" s="106"/>
-      <c r="E75" s="114">
-        <v>209.48</v>
-      </c>
-      <c r="F75" s="111"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="101">
+        <v>275.31</v>
+      </c>
+      <c r="F75" s="98"/>
     </row>
     <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="70"/>
-      <c r="B76" s="84"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
     </row>
     <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
-      <c r="B77" s="115" t="s">
+      <c r="A77" s="58"/>
+      <c r="B77" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="103"/>
-      <c r="D77" s="116"/>
-      <c r="E77" s="117">
-        <v>2414.48</v>
-      </c>
-      <c r="F77" s="118"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="104">
+        <v>3173.31</v>
+      </c>
+      <c r="F77" s="105"/>
     </row>
     <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="70"/>
-      <c r="B78" s="112"/>
-      <c r="C78" s="112"/>
-      <c r="D78" s="112"/>
-      <c r="E78" s="119"/>
-      <c r="F78" s="112"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="99"/>
     </row>
     <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="70"/>
-      <c r="B79" s="84" t="s">
+      <c r="A79" s="58"/>
+      <c r="B79" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="112"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="73">
+      <c r="C79" s="99"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
         <v>0</v>
       </c>
-      <c r="F79" s="73"/>
+      <c r="F79" s="61"/>
     </row>
     <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="70"/>
-      <c r="B80" s="103"/>
-      <c r="C80" s="112"/>
-      <c r="D80" s="112"/>
-      <c r="E80" s="119"/>
-      <c r="F80" s="112"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="99"/>
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="70"/>
-      <c r="B81" s="120" t="s">
+      <c r="A81" s="58"/>
+      <c r="B81" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="121"/>
-      <c r="D81" s="122"/>
-      <c r="E81" s="123">
-        <v>2414.48</v>
-      </c>
-      <c r="F81" s="73"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="107"/>
+      <c r="E81" s="108">
+        <v>3173.31</v>
+      </c>
+      <c r="F81" s="61"/>
     </row>
     <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="70"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="73"/>
-      <c r="F82" s="73"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="124"/>
-      <c r="B83" s="125"/>
-      <c r="C83" s="126"/>
-      <c r="D83" s="126"/>
-      <c r="E83" s="126"/>
-      <c r="F83" s="127"/>
+      <c r="A83" s="109"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="110"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="128" t="s">
+      <c r="A84" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="128"/>
-      <c r="C84" s="128"/>
-      <c r="D84" s="128"/>
-      <c r="E84" s="128"/>
-      <c r="F84" s="84"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
+      <c r="F84" s="71"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="129" t="s">
+      <c r="A85" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="129"/>
-      <c r="C85" s="129"/>
-      <c r="D85" s="129"/>
-      <c r="E85" s="129"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="130"/>
-      <c r="B86" s="130"/>
-      <c r="C86" s="130"/>
-      <c r="D86" s="130"/>
-      <c r="E86" s="130"/>
+      <c r="A86" s="111"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
       <c r="F86" s="46"/>
     </row>
     <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="130"/>
-      <c r="B87" s="130"/>
-      <c r="C87" s="130"/>
-      <c r="D87" s="130"/>
-      <c r="E87" s="130"/>
+      <c r="A87" s="111"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="111"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="111"/>
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5189,7 +6129,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Factures_Excel/1750 - 9152-9396 Québec Inc (Automanie).xlsx
+++ b/Factures_Excel/1750 - 9152-9396 Québec Inc (Automanie).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D557C97A-669D-4EB6-B64A-B0C34AC551EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D8E134-B7E8-4FFB-B0E9-E990C352BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="29-03-24" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Activités" sheetId="5" r:id="rId4"/>
     <sheet name="2024-12-23 - 24-24734" sheetId="8" r:id="rId5"/>
     <sheet name="2025-03-01 - 25-24747" sheetId="9" r:id="rId6"/>
+    <sheet name="2025-03-14 - 25-24831" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -28,6 +29,7 @@
     <definedName name="Print_Area" localSheetId="3">Activités!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2024-12-23 - 24-24734'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2025-03-01 - 25-24747'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'2025-03-14 - 25-24831'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'26-05-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'28-07-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'29-03-24'!$A$1:$F$89</definedName>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="101">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -345,6 +347,15 @@
   </si>
   <si>
     <t xml:space="preserve"> - Préparation à la rencontre et rencontre avec vous par Vidéoconférence;</t>
+  </si>
+  <si>
+    <t>Le 14 MARS 2025</t>
+  </si>
+  <si>
+    <t>25-24831</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Test</t>
   </si>
 </sst>
 </file>
@@ -555,7 +566,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +588,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,7 +802,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1032,42 +1049,48 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,11 +1112,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1486,6 +1506,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6145" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576F1EB9-6649-8739-43B4-0EEB5FABB56B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1914,14 +2000,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -1942,285 +2028,285 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="114" t="s">
+      <c r="B41" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="114" t="s">
+      <c r="B51" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="114" t="s">
+      <c r="B53" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="114" t="s">
+      <c r="B57" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="114" t="s">
+      <c r="B59" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -2250,17 +2336,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -2367,19 +2453,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="116"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="121" t="s">
+      <c r="B78" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="121"/>
-      <c r="D78" s="121"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -2387,9 +2473,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="116"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -2424,31 +2510,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="115"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="113" t="s">
+      <c r="A84" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="113"/>
-      <c r="C84" s="113"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="113"/>
-      <c r="F84" s="113"/>
+      <c r="B84" s="123"/>
+      <c r="C84" s="123"/>
+      <c r="D84" s="123"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="123"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="122" t="s">
+      <c r="A85" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
-      <c r="F85" s="122"/>
+      <c r="B85" s="119"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="119"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -2460,26 +2546,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="112" t="s">
+      <c r="A88" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="112"/>
-      <c r="C88" s="112"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="112"/>
-      <c r="F88" s="112"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="122"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -2489,6 +2575,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -2505,34 +2619,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -2542,7 +2628,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2550,7 +2636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DA4002-5CED-489F-B367-62E137100F98}">
-  <sheetPr>
+  <sheetPr codeName="Feuil3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -2691,14 +2777,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2719,277 +2805,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="114" t="s">
+      <c r="B38" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="114" t="s">
+      <c r="B46" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="114" t="s">
+      <c r="B50" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="114" t="s">
+      <c r="B52" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3019,17 +3105,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3136,19 +3222,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="116"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="121" t="s">
+      <c r="B78" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="121"/>
-      <c r="D78" s="121"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3156,9 +3242,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="116"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3193,31 +3279,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="115"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="113" t="s">
+      <c r="A84" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="113"/>
-      <c r="C84" s="113"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="113"/>
-      <c r="F84" s="113"/>
+      <c r="B84" s="123"/>
+      <c r="C84" s="123"/>
+      <c r="D84" s="123"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="123"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="122" t="s">
+      <c r="A85" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
-      <c r="F85" s="122"/>
+      <c r="B85" s="119"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="119"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3229,26 +3315,776 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="112" t="s">
+      <c r="A88" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="112"/>
-      <c r="C88" s="112"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="112"/>
-      <c r="F88" s="112"/>
+      <c r="B88" s="122"/>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="122"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{13356199-CCDE-4D7F-B983-5C31E8440532}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1428DDD-DEE4-4F4F-8C4B-6E4178427224}">
+  <sheetPr codeName="Feuil4">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F92"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A33" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:D67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="46"/>
+    </row>
+    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="51">
+        <v>1.25</v>
+      </c>
+      <c r="D66" s="52">
+        <v>350</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="46"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29">
+        <f>D66*C66</f>
+        <v>437.5</v>
+      </c>
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="30">
+        <v>0</v>
+      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="30">
+        <v>0</v>
+      </c>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>SUM(E69:E71)</f>
+        <v>437.5</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="35">
+        <f>ROUND(E72*C73,2)</f>
+        <v>21.88</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="43">
+        <f>ROUND(E72*C74,2)</f>
+        <v>43.64</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="33">
+        <f>SUM(E72:E74)</f>
+        <v>503.02</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="36">
+        <v>0</v>
+      </c>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="121"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="121"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="39">
+        <f>E76-E78</f>
+        <v>503.02</v>
+      </c>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="115"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="123" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="123"/>
+      <c r="C84" s="123"/>
+      <c r="D84" s="123"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="123"/>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="119"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="119"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="116"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="122"/>
+      <c r="C88" s="122"/>
+      <c r="D88" s="122"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="122"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="113"/>
+      <c r="C90" s="114"/>
+      <c r="D90" s="114"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3304,763 +4140,13 @@
     <mergeCell ref="B87:E87"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{13356199-CCDE-4D7F-B983-5C31E8440532}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1428DDD-DEE4-4F4F-8C4B-6E4178427224}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F92"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A33" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:D67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="114"/>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="114"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="114"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="114"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="114"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="114"/>
-      <c r="C54" s="114"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="114"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="46"/>
-    </row>
-    <row r="66" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="51">
-        <v>1.25</v>
-      </c>
-      <c r="D66" s="52">
-        <v>350</v>
-      </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="114"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="29">
-        <f>D66*C66</f>
-        <v>437.5</v>
-      </c>
-      <c r="F69" s="21"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="30">
-        <v>0</v>
-      </c>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="30">
-        <v>0</v>
-      </c>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>SUM(E69:E71)</f>
-        <v>437.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="35">
-        <f>ROUND(E72*C73,2)</f>
-        <v>21.88</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="43">
-        <f>ROUND(E72*C74,2)</f>
-        <v>43.64</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="33">
-        <f>SUM(E72:E74)</f>
-        <v>503.02</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="116"/>
-      <c r="C77" s="116"/>
-      <c r="D77" s="116"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="121" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="121"/>
-      <c r="D78" s="121"/>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="116"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="116"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39">
-        <f>E76-E78</f>
-        <v>503.02</v>
-      </c>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="119"/>
-      <c r="C83" s="119"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="113"/>
-      <c r="C84" s="113"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="113"/>
-      <c r="F84" s="113"/>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
-      <c r="F85" s="122"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="120"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="120"/>
-      <c r="F87" s="21"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="112"/>
-      <c r="C88" s="112"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="112"/>
-      <c r="F88" s="112"/>
-    </row>
-    <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="117"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="118"/>
-    </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77:B79 B12:B20 B33:B68" xr:uid="{4253466C-1418-4C3E-B604-42B4B5CE8DBE}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4087,10 +4173,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="123"/>
+      <c r="C1" s="124"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4455,14 +4541,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E48BB53-1F05-42B3-8B50-531E4AA3BD22}">
-  <sheetPr>
+  <sheetPr codeName="Feuil5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F88"/>
@@ -4728,13 +4814,13 @@
       <c r="F29" s="67"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="68"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5207,10 +5293,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="58"/>
-      <c r="B81" s="125" t="s">
+      <c r="B81" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="126"/>
+      <c r="C81" s="128"/>
       <c r="D81" s="107"/>
       <c r="E81" s="108">
         <v>2414.48</v>
@@ -5227,30 +5313,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="109"/>
-      <c r="B83" s="127"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="128"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="130"/>
+      <c r="D83" s="130"/>
+      <c r="E83" s="130"/>
       <c r="F83" s="110"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="129" t="s">
+      <c r="A84" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="129"/>
-      <c r="C84" s="129"/>
-      <c r="D84" s="129"/>
-      <c r="E84" s="129"/>
+      <c r="B84" s="131"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
       <c r="F84" s="71"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="130" t="s">
+      <c r="A85" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="130"/>
-      <c r="C85" s="130"/>
-      <c r="D85" s="130"/>
-      <c r="E85" s="130"/>
+      <c r="B85" s="132"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="132"/>
+      <c r="E85" s="132"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5270,14 +5356,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="131" t="s">
+      <c r="A88" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="131"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="131"/>
-      <c r="E88" s="131"/>
-      <c r="F88" s="131"/>
+      <c r="B88" s="125"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="125"/>
+      <c r="F88" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5297,7 +5383,846 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE157C5E-25C8-4F32-BFA6-0A9E015D13C8}">
-  <sheetPr>
+  <sheetPr codeName="Feuil6">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="58"/>
+      <c r="B25" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="58"/>
+      <c r="B26" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="64"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="68"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="70"/>
+      <c r="B32" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="70"/>
+      <c r="B34" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="70"/>
+      <c r="B35" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="70"/>
+      <c r="B36" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="70"/>
+      <c r="B37" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="70"/>
+      <c r="B38" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="70"/>
+      <c r="B39" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="70"/>
+      <c r="B40" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="70"/>
+      <c r="B41" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="76"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="70"/>
+      <c r="B43" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="70"/>
+      <c r="B44" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="76"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="70"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="70"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="70"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="70"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="70"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="70"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="70"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="70"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="70"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="70"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="70"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="70"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="70"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="70"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="70"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="70"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="70"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="70"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="70"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="70"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="70"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="70"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="86">
+        <v>6.9</v>
+      </c>
+      <c r="D66" s="87">
+        <v>400</v>
+      </c>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="70"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="87"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="70"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="70"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="58"/>
+      <c r="B69" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="90"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="91">
+        <v>2760</v>
+      </c>
+      <c r="F69" s="91"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="58"/>
+      <c r="B70" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="93"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="94">
+        <v>0</v>
+      </c>
+      <c r="F70" s="94"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="58"/>
+      <c r="B71" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="93"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="94">
+        <v>0</v>
+      </c>
+      <c r="F71" s="94"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="58"/>
+      <c r="B72" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="93"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="94">
+        <v>0</v>
+      </c>
+      <c r="F72" s="94"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="58"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="90"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="96">
+        <v>2760</v>
+      </c>
+      <c r="F73" s="96"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="58"/>
+      <c r="B74" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="97">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="93"/>
+      <c r="E74" s="98">
+        <v>138</v>
+      </c>
+      <c r="F74" s="98"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="58"/>
+      <c r="B75" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="100">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="93"/>
+      <c r="E75" s="101">
+        <v>275.31</v>
+      </c>
+      <c r="F75" s="98"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="58"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
+      <c r="B77" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="90"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="104">
+        <v>3173.31</v>
+      </c>
+      <c r="F77" s="105"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="58"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="99"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="58"/>
+      <c r="B79" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="99"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="58"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="99"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="58"/>
+      <c r="B81" s="127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="128"/>
+      <c r="D81" s="107"/>
+      <c r="E81" s="108">
+        <v>3173.31</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="109"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="130"/>
+      <c r="D83" s="130"/>
+      <c r="E83" s="130"/>
+      <c r="F83" s="110"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="131"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
+      <c r="F84" s="71"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="132"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="132"/>
+      <c r="E85" s="132"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="111"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="111"/>
+      <c r="B87" s="111"/>
+      <c r="C87" s="111"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="111"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="125"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="125"/>
+      <c r="F88" s="125"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9909C74B-1F82-4D74-85CE-15CDEEB56194}">
+  <sheetPr codeName="Feuil7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F88"/>
@@ -5384,7 +6309,7 @@
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
     </row>
@@ -5479,7 +6404,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58"/>
       <c r="B21" s="59" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -5506,7 +6431,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58"/>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="112" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="58"/>
@@ -5550,7 +6475,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="64" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F28" s="64"/>
     </row>
@@ -5563,13 +6488,13 @@
       <c r="F29" s="67"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="124" t="s">
+      <c r="A30" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="68"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5601,7 +6526,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="70"/>
       <c r="B34" s="75" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="77"/>
@@ -5610,9 +6535,7 @@
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="70"/>
-      <c r="B35" s="75" t="s">
-        <v>82</v>
-      </c>
+      <c r="B35" s="75"/>
       <c r="C35" s="78"/>
       <c r="D35" s="77"/>
       <c r="E35" s="77"/>
@@ -5620,9 +6543,7 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="70"/>
-      <c r="B36" s="75" t="s">
-        <v>95</v>
-      </c>
+      <c r="B36" s="75"/>
       <c r="C36" s="76"/>
       <c r="D36" s="77"/>
       <c r="E36" s="77"/>
@@ -5630,9 +6551,7 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="70"/>
-      <c r="B37" s="75" t="s">
-        <v>82</v>
-      </c>
+      <c r="B37" s="75"/>
       <c r="C37" s="76"/>
       <c r="D37" s="77"/>
       <c r="E37" s="77"/>
@@ -5640,9 +6559,7 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="70"/>
-      <c r="B38" s="75" t="s">
-        <v>96</v>
-      </c>
+      <c r="B38" s="75"/>
       <c r="C38" s="76"/>
       <c r="D38" s="77"/>
       <c r="E38" s="77"/>
@@ -5650,9 +6567,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="70"/>
-      <c r="B39" s="75" t="s">
-        <v>82</v>
-      </c>
+      <c r="B39" s="75"/>
       <c r="C39" s="76"/>
       <c r="D39" s="77"/>
       <c r="E39" s="77"/>
@@ -5660,9 +6575,7 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="70"/>
-      <c r="B40" s="75" t="s">
-        <v>9</v>
-      </c>
+      <c r="B40" s="75"/>
       <c r="C40" s="78"/>
       <c r="D40" s="77"/>
       <c r="E40" s="77"/>
@@ -5670,9 +6583,7 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="70"/>
-      <c r="B41" s="75" t="s">
-        <v>82</v>
-      </c>
+      <c r="B41" s="75"/>
       <c r="C41" s="76"/>
       <c r="D41" s="77"/>
       <c r="E41" s="77"/>
@@ -5680,9 +6591,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="70"/>
-      <c r="B42" s="75" t="s">
-        <v>97</v>
-      </c>
+      <c r="B42" s="75"/>
       <c r="C42" s="76"/>
       <c r="D42" s="77"/>
       <c r="E42" s="77"/>
@@ -5690,9 +6599,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="70"/>
-      <c r="B43" s="75" t="s">
-        <v>82</v>
-      </c>
+      <c r="B43" s="75"/>
       <c r="C43" s="76"/>
       <c r="D43" s="77"/>
       <c r="E43" s="77"/>
@@ -5700,9 +6607,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="70"/>
-      <c r="B44" s="75" t="s">
-        <v>39</v>
-      </c>
+      <c r="B44" s="75"/>
       <c r="C44" s="76"/>
       <c r="D44" s="77"/>
       <c r="E44" s="77"/>
@@ -5884,10 +6789,10 @@
       <c r="A66" s="70"/>
       <c r="B66" s="75"/>
       <c r="C66" s="86">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="D66" s="87">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E66" s="88"/>
       <c r="F66" s="88"/>
@@ -5916,7 +6821,7 @@
       <c r="C69" s="90"/>
       <c r="D69" s="60"/>
       <c r="E69" s="91">
-        <v>2760</v>
+        <v>192.5</v>
       </c>
       <c r="F69" s="91"/>
     </row>
@@ -5964,7 +6869,7 @@
       <c r="C73" s="90"/>
       <c r="D73" s="60"/>
       <c r="E73" s="96">
-        <v>2760</v>
+        <v>192.5</v>
       </c>
       <c r="F73" s="96"/>
     </row>
@@ -5978,7 +6883,7 @@
       </c>
       <c r="D74" s="93"/>
       <c r="E74" s="98">
-        <v>138</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="F74" s="98"/>
     </row>
@@ -5992,7 +6897,7 @@
       </c>
       <c r="D75" s="93"/>
       <c r="E75" s="101">
-        <v>275.31</v>
+        <v>19.2</v>
       </c>
       <c r="F75" s="98"/>
     </row>
@@ -6012,7 +6917,7 @@
       <c r="C77" s="90"/>
       <c r="D77" s="103"/>
       <c r="E77" s="104">
-        <v>3173.31</v>
+        <v>221.32999999999998</v>
       </c>
       <c r="F77" s="105"/>
     </row>
@@ -6046,13 +6951,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="58"/>
-      <c r="B81" s="125" t="s">
+      <c r="B81" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="126"/>
+      <c r="C81" s="128"/>
       <c r="D81" s="107"/>
       <c r="E81" s="108">
-        <v>3173.31</v>
+        <v>221.32999999999998</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -6066,30 +6971,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="109"/>
-      <c r="B83" s="127"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="128"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="130"/>
+      <c r="D83" s="130"/>
+      <c r="E83" s="130"/>
       <c r="F83" s="110"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="129" t="s">
+      <c r="A84" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="129"/>
-      <c r="C84" s="129"/>
-      <c r="D84" s="129"/>
-      <c r="E84" s="129"/>
+      <c r="B84" s="131"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
       <c r="F84" s="71"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="130" t="s">
+      <c r="A85" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="130"/>
-      <c r="C85" s="130"/>
-      <c r="D85" s="130"/>
-      <c r="E85" s="130"/>
+      <c r="B85" s="132"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="132"/>
+      <c r="E85" s="132"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6109,14 +7014,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="131" t="s">
+      <c r="A88" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="131"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="131"/>
-      <c r="E88" s="131"/>
-      <c r="F88" s="131"/>
+      <c r="B88" s="125"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="125"/>
+      <c r="F88" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6129,7 +7034,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="58" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Factures_Excel/1750 - 9152-9396 Québec Inc (Automanie).xlsx
+++ b/Factures_Excel/1750 - 9152-9396 Québec Inc (Automanie).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D8E134-B7E8-4FFB-B0E9-E990C352BECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB7846-28CC-41CB-9D49-A27BD8B45004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Activités" sheetId="5" r:id="rId4"/>
     <sheet name="2024-12-23 - 24-24734" sheetId="8" r:id="rId5"/>
     <sheet name="2025-03-01 - 25-24747" sheetId="9" r:id="rId6"/>
-    <sheet name="2025-03-14 - 25-24831" sheetId="10" r:id="rId7"/>
+    <sheet name="2025-05-06 - 25-24927" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -29,7 +29,7 @@
     <definedName name="Print_Area" localSheetId="3">Activités!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2024-12-23 - 24-24734'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2025-03-01 - 25-24747'!$A$1:$F$88</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'2025-03-14 - 25-24831'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'2025-05-06 - 25-24927'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'26-05-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'28-07-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'29-03-24'!$A$1:$F$89</definedName>
@@ -349,13 +349,13 @@
     <t xml:space="preserve"> - Préparation à la rencontre et rencontre avec vous par Vidéoconférence;</t>
   </si>
   <si>
-    <t>Le 14 MARS 2025</t>
-  </si>
-  <si>
-    <t>25-24831</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Test</t>
+    <t>Le 6 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-24927</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - TEST</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1526,7 @@
         <xdr:cNvPr id="6145" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576F1EB9-6649-8739-43B4-0EEB5FABB56B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B30D12-DFFF-EE00-0926-6DE78E5034C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6221,7 +6221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9909C74B-1F82-4D74-85CE-15CDEEB56194}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC463CF-B7DF-4CC4-9A39-C6C6B53E9E98}">
   <sheetPr codeName="Feuil7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6789,7 +6789,7 @@
       <c r="A66" s="70"/>
       <c r="B66" s="75"/>
       <c r="C66" s="86">
-        <v>0.5</v>
+        <v>9.9</v>
       </c>
       <c r="D66" s="87">
         <v>385</v>
@@ -6821,7 +6821,7 @@
       <c r="C69" s="90"/>
       <c r="D69" s="60"/>
       <c r="E69" s="91">
-        <v>192.5</v>
+        <v>3811.5</v>
       </c>
       <c r="F69" s="91"/>
     </row>
@@ -6869,7 +6869,7 @@
       <c r="C73" s="90"/>
       <c r="D73" s="60"/>
       <c r="E73" s="96">
-        <v>192.5</v>
+        <v>3811.5</v>
       </c>
       <c r="F73" s="96"/>
     </row>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="D74" s="93"/>
       <c r="E74" s="98">
-        <v>9.6300000000000008</v>
+        <v>190.58</v>
       </c>
       <c r="F74" s="98"/>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="D75" s="93"/>
       <c r="E75" s="101">
-        <v>19.2</v>
+        <v>380.2</v>
       </c>
       <c r="F75" s="98"/>
     </row>
@@ -6917,7 +6917,7 @@
       <c r="C77" s="90"/>
       <c r="D77" s="103"/>
       <c r="E77" s="104">
-        <v>221.32999999999998</v>
+        <v>4382.28</v>
       </c>
       <c r="F77" s="105"/>
     </row>
@@ -6957,7 +6957,7 @@
       <c r="C81" s="128"/>
       <c r="D81" s="107"/>
       <c r="E81" s="108">
-        <v>221.32999999999998</v>
+        <v>4382.28</v>
       </c>
       <c r="F81" s="61"/>
     </row>

--- a/Factures_Excel/1750 - 9152-9396 Québec Inc (Automanie).xlsx
+++ b/Factures_Excel/1750 - 9152-9396 Québec Inc (Automanie).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBA\GC_FISCALITÉ\Factures_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DB7846-28CC-41CB-9D49-A27BD8B45004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA53CB7D-6EDC-4A89-8CDA-88E6E822AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="29-03-24" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Activités" sheetId="5" r:id="rId4"/>
     <sheet name="2024-12-23 - 24-24734" sheetId="8" r:id="rId5"/>
     <sheet name="2025-03-01 - 25-24747" sheetId="9" r:id="rId6"/>
-    <sheet name="2025-05-06 - 25-24927" sheetId="10" r:id="rId7"/>
+    <sheet name="2025-05-17 - 25-24933" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Liste_Activités">Activités!$C$5:$C$47</definedName>
@@ -29,7 +29,7 @@
     <definedName name="Print_Area" localSheetId="3">Activités!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2024-12-23 - 24-24734'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'2025-03-01 - 25-24747'!$A$1:$F$88</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'2025-05-06 - 25-24927'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'2025-05-17 - 25-24933'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'26-05-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'28-07-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'29-03-24'!$A$1:$F$89</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -349,13 +349,25 @@
     <t xml:space="preserve"> - Préparation à la rencontre et rencontre avec vous par Vidéoconférence;</t>
   </si>
   <si>
-    <t>Le 6 MAI 2025</t>
-  </si>
-  <si>
-    <t>25-24927</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - TEST</t>
+    <t>Le 17 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-24933</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Recueullir les différentes informations pertinentes à l'élaboration de la planification fiscale;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de tableaux de capital actions;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse, réflexions et recherches fiscales permettant de déterminer le plan d'action fiscal optimal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Rédaction d'un mémorandum fiscal pour mettre en place la réorganisation fiscale déterminée;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation d'organigrammes corporatifs après opérations;</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1538,7 @@
         <xdr:cNvPr id="6145" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72B30D12-DFFF-EE00-0926-6DE78E5034C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFFE8C4F-0EC5-F559-7F33-C0C695BD5403}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2640,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2636,7 +2648,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DA4002-5CED-489F-B367-62E137100F98}">
-  <sheetPr codeName="Feuil3">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -3396,7 +3408,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3404,7 +3416,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1428DDD-DEE4-4F4F-8C4B-6E4178427224}">
-  <sheetPr codeName="Feuil4">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A12:F92"/>
@@ -4146,7 +4158,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" scale="33" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4541,14 +4553,14 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
-  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E48BB53-1F05-42B3-8B50-531E4AA3BD22}">
-  <sheetPr codeName="Feuil5">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F88"/>
@@ -5383,7 +5395,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE157C5E-25C8-4F32-BFA6-0A9E015D13C8}">
-  <sheetPr codeName="Feuil6">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F88"/>
@@ -6221,8 +6233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC463CF-B7DF-4CC4-9A39-C6C6B53E9E98}">
-  <sheetPr codeName="Feuil7">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC95BEDF-9542-407E-B7E5-2F0C10A9A022}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F88"/>
@@ -6526,7 +6538,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="70"/>
       <c r="B34" s="75" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="77"/>
@@ -6535,7 +6547,9 @@
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="70"/>
-      <c r="B35" s="75"/>
+      <c r="B35" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C35" s="78"/>
       <c r="D35" s="77"/>
       <c r="E35" s="77"/>
@@ -6543,7 +6557,9 @@
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="70"/>
-      <c r="B36" s="75"/>
+      <c r="B36" s="75" t="s">
+        <v>100</v>
+      </c>
       <c r="C36" s="76"/>
       <c r="D36" s="77"/>
       <c r="E36" s="77"/>
@@ -6551,7 +6567,9 @@
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="70"/>
-      <c r="B37" s="75"/>
+      <c r="B37" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C37" s="76"/>
       <c r="D37" s="77"/>
       <c r="E37" s="77"/>
@@ -6559,7 +6577,9 @@
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="70"/>
-      <c r="B38" s="75"/>
+      <c r="B38" s="75" t="s">
+        <v>2</v>
+      </c>
       <c r="C38" s="76"/>
       <c r="D38" s="77"/>
       <c r="E38" s="77"/>
@@ -6567,7 +6587,9 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="70"/>
-      <c r="B39" s="75"/>
+      <c r="B39" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C39" s="76"/>
       <c r="D39" s="77"/>
       <c r="E39" s="77"/>
@@ -6575,7 +6597,9 @@
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="70"/>
-      <c r="B40" s="75"/>
+      <c r="B40" s="75" t="s">
+        <v>21</v>
+      </c>
       <c r="C40" s="78"/>
       <c r="D40" s="77"/>
       <c r="E40" s="77"/>
@@ -6583,7 +6607,9 @@
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="70"/>
-      <c r="B41" s="75"/>
+      <c r="B41" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C41" s="76"/>
       <c r="D41" s="77"/>
       <c r="E41" s="77"/>
@@ -6591,7 +6617,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="70"/>
-      <c r="B42" s="75"/>
+      <c r="B42" s="75" t="s">
+        <v>101</v>
+      </c>
       <c r="C42" s="76"/>
       <c r="D42" s="77"/>
       <c r="E42" s="77"/>
@@ -6599,7 +6627,9 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="70"/>
-      <c r="B43" s="75"/>
+      <c r="B43" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C43" s="76"/>
       <c r="D43" s="77"/>
       <c r="E43" s="77"/>
@@ -6607,7 +6637,9 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="70"/>
-      <c r="B44" s="75"/>
+      <c r="B44" s="75" t="s">
+        <v>102</v>
+      </c>
       <c r="C44" s="76"/>
       <c r="D44" s="77"/>
       <c r="E44" s="77"/>
@@ -6615,7 +6647,9 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="70"/>
-      <c r="B45" s="75"/>
+      <c r="B45" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C45" s="76"/>
       <c r="D45" s="77"/>
       <c r="E45" s="77"/>
@@ -6623,7 +6657,9 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="70"/>
-      <c r="B46" s="75"/>
+      <c r="B46" s="75" t="s">
+        <v>103</v>
+      </c>
       <c r="C46" s="76"/>
       <c r="D46" s="77"/>
       <c r="E46" s="77"/>
@@ -6631,7 +6667,9 @@
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="70"/>
-      <c r="B47" s="75"/>
+      <c r="B47" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C47" s="76"/>
       <c r="D47" s="77"/>
       <c r="E47" s="77"/>
@@ -6639,7 +6677,9 @@
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="70"/>
-      <c r="B48" s="75"/>
+      <c r="B48" s="75" t="s">
+        <v>104</v>
+      </c>
       <c r="C48" s="76"/>
       <c r="D48" s="77"/>
       <c r="E48" s="77"/>
@@ -6647,7 +6687,9 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="70"/>
-      <c r="B49" s="75"/>
+      <c r="B49" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C49" s="76"/>
       <c r="D49" s="77"/>
       <c r="E49" s="77"/>
@@ -6655,7 +6697,9 @@
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="70"/>
-      <c r="B50" s="75"/>
+      <c r="B50" s="75" t="s">
+        <v>20</v>
+      </c>
       <c r="C50" s="79"/>
       <c r="D50" s="79"/>
       <c r="E50" s="77"/>
@@ -6663,7 +6707,9 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="70"/>
-      <c r="B51" s="75"/>
+      <c r="B51" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C51" s="76"/>
       <c r="D51" s="77"/>
       <c r="E51" s="77"/>
@@ -6671,7 +6717,9 @@
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="70"/>
-      <c r="B52" s="75"/>
+      <c r="B52" s="75" t="s">
+        <v>22</v>
+      </c>
       <c r="C52" s="76"/>
       <c r="D52" s="77"/>
       <c r="E52" s="77"/>
@@ -6679,7 +6727,9 @@
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="70"/>
-      <c r="B53" s="75"/>
+      <c r="B53" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C53" s="76"/>
       <c r="D53" s="77"/>
       <c r="E53" s="77"/>
@@ -6687,7 +6737,9 @@
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="70"/>
-      <c r="B54" s="75"/>
+      <c r="B54" s="75" t="s">
+        <v>33</v>
+      </c>
       <c r="C54" s="76"/>
       <c r="D54" s="77"/>
       <c r="E54" s="77"/>
@@ -6695,7 +6747,9 @@
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="70"/>
-      <c r="B55" s="75"/>
+      <c r="B55" s="75" t="s">
+        <v>82</v>
+      </c>
       <c r="C55" s="76"/>
       <c r="D55" s="77"/>
       <c r="E55" s="77"/>
@@ -6703,7 +6757,9 @@
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="70"/>
-      <c r="B56" s="75"/>
+      <c r="B56" s="75" t="s">
+        <v>39</v>
+      </c>
       <c r="C56" s="76"/>
       <c r="D56" s="77"/>
       <c r="E56" s="77"/>
@@ -6789,7 +6845,7 @@
       <c r="A66" s="70"/>
       <c r="B66" s="75"/>
       <c r="C66" s="86">
-        <v>9.9</v>
+        <v>18</v>
       </c>
       <c r="D66" s="87">
         <v>385</v>
@@ -6821,7 +6877,7 @@
       <c r="C69" s="90"/>
       <c r="D69" s="60"/>
       <c r="E69" s="91">
-        <v>3811.5</v>
+        <v>6930</v>
       </c>
       <c r="F69" s="91"/>
     </row>
@@ -6869,7 +6925,7 @@
       <c r="C73" s="90"/>
       <c r="D73" s="60"/>
       <c r="E73" s="96">
-        <v>3811.5</v>
+        <v>6930</v>
       </c>
       <c r="F73" s="96"/>
     </row>
@@ -6883,7 +6939,7 @@
       </c>
       <c r="D74" s="93"/>
       <c r="E74" s="98">
-        <v>190.58</v>
+        <v>346.5</v>
       </c>
       <c r="F74" s="98"/>
     </row>
@@ -6897,7 +6953,7 @@
       </c>
       <c r="D75" s="93"/>
       <c r="E75" s="101">
-        <v>380.2</v>
+        <v>691.27</v>
       </c>
       <c r="F75" s="98"/>
     </row>
@@ -6917,7 +6973,7 @@
       <c r="C77" s="90"/>
       <c r="D77" s="103"/>
       <c r="E77" s="104">
-        <v>4382.28</v>
+        <v>7967.77</v>
       </c>
       <c r="F77" s="105"/>
     </row>
@@ -6957,7 +7013,7 @@
       <c r="C81" s="128"/>
       <c r="D81" s="107"/>
       <c r="E81" s="108">
-        <v>4382.28</v>
+        <v>7967.77</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -7034,7 +7090,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="58" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>